--- a/results/ROI_greedy/dataset_06/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/ROI_greedy/dataset_06/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>213.0768555064352</v>
+        <v>213.0768555064351</v>
       </c>
       <c r="H4">
         <v>39.72198594603772</v>
@@ -823,10 +823,10 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O4">
-        <v>213.0768555064352</v>
+        <v>213.0768555064351</v>
       </c>
       <c r="P4">
         <v>39.72198594603772</v>
@@ -838,10 +838,10 @@
         <v>106.6319396146482</v>
       </c>
       <c r="S4">
-        <v>5.364204493599587</v>
+        <v>5.364204493599585</v>
       </c>
       <c r="T4">
-        <v>5.364204493599587</v>
+        <v>5.364204493599585</v>
       </c>
       <c r="U4">
         <v>1.679748088033469</v>
@@ -962,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>214.6852318126192</v>
+        <v>214.6852318126193</v>
       </c>
       <c r="H6">
         <v>26.15503988941962</v>
       </c>
       <c r="I6">
-        <v>188.5301919231996</v>
+        <v>188.5301919231997</v>
       </c>
       <c r="J6">
         <v>0.1</v>
@@ -983,10 +983,10 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.8859632792896633</v>
+        <v>0.8859632792896636</v>
       </c>
       <c r="O6">
-        <v>266.5274308381956</v>
+        <v>266.5274308381955</v>
       </c>
       <c r="P6">
         <v>53.73058436578081</v>
@@ -995,13 +995,13 @@
         <v>1.601494787633478</v>
       </c>
       <c r="R6">
-        <v>126.747595674116</v>
+        <v>126.7475956741159</v>
       </c>
       <c r="S6">
-        <v>4.960441692272714</v>
+        <v>4.960441692272713</v>
       </c>
       <c r="T6">
-        <v>8.208178336576152</v>
+        <v>8.208178336576154</v>
       </c>
       <c r="U6">
         <v>2.105131015358093</v>
@@ -1010,7 +1010,7 @@
         <v>133.4704062440543</v>
       </c>
       <c r="W6">
-        <v>372.2143506533695</v>
+        <v>372.2143506533694</v>
       </c>
       <c r="X6">
         <v>560.7445425765691</v>
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>243.1998249441516</v>
+        <v>243.1998249441515</v>
       </c>
       <c r="H7">
         <v>21.57700732767316</v>
@@ -1063,7 +1063,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.9311851795124053</v>
+        <v>0.9311851795124051</v>
       </c>
       <c r="O7">
         <v>270.1337736281939</v>
@@ -1075,19 +1075,19 @@
         <v>2.129034573580681</v>
       </c>
       <c r="R7">
-        <v>169.5885880067285</v>
+        <v>169.5885880067284</v>
       </c>
       <c r="S7">
-        <v>8.406746796974248</v>
+        <v>8.406746796974247</v>
       </c>
       <c r="T7">
-        <v>11.27124912416564</v>
+        <v>11.27124912416563</v>
       </c>
       <c r="U7">
         <v>2.422255158126809</v>
       </c>
       <c r="V7">
-        <v>169.3578003200822</v>
+        <v>169.3578003200821</v>
       </c>
       <c r="W7">
         <v>330.5153522872637</v>
@@ -1099,7 +1099,7 @@
         <v>314.13736996347</v>
       </c>
       <c r="Z7">
-        <v>1.052136370549286</v>
+        <v>1.052136370549287</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1282,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>180.2433015588893</v>
+        <v>180.2433015588894</v>
       </c>
       <c r="H10">
         <v>27.00057124799399</v>
@@ -1395,10 +1395,10 @@
         <v>1.97142844029196</v>
       </c>
       <c r="R11">
-        <v>146.985171925747</v>
+        <v>146.9851719257471</v>
       </c>
       <c r="S11">
-        <v>7.180926690721301</v>
+        <v>7.180926690721303</v>
       </c>
       <c r="T11">
         <v>7.333577395846636</v>
@@ -1623,10 +1623,10 @@
         <v>0.1</v>
       </c>
       <c r="N14">
-        <v>0.7371934509608604</v>
+        <v>0.7371934509608603</v>
       </c>
       <c r="O14">
-        <v>246.6460399241792</v>
+        <v>246.6460399241791</v>
       </c>
       <c r="P14">
         <v>51.02738625833838</v>
@@ -1638,16 +1638,16 @@
         <v>115.2203224013883</v>
       </c>
       <c r="S14">
-        <v>4.833601287659032</v>
+        <v>4.833601287659031</v>
       </c>
       <c r="T14">
-        <v>6.327419604149537</v>
+        <v>6.327419604149536</v>
       </c>
       <c r="U14">
         <v>1.844892507572075</v>
       </c>
       <c r="V14">
-        <v>94.26909410906484</v>
+        <v>94.26909410906481</v>
       </c>
       <c r="W14">
         <v>360.1651623871875</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>237.4315732438609</v>
+        <v>237.4315732438608</v>
       </c>
       <c r="H15">
         <v>24.86888782604564</v>
@@ -1703,7 +1703,7 @@
         <v>0.1</v>
       </c>
       <c r="N15">
-        <v>0.9390715503179332</v>
+        <v>0.9390715503179329</v>
       </c>
       <c r="O15">
         <v>270.58170258979</v>
@@ -1715,22 +1715,22 @@
         <v>1.811224763027995</v>
       </c>
       <c r="R15">
-        <v>146.2479404749927</v>
+        <v>146.2479404749926</v>
       </c>
       <c r="S15">
-        <v>6.117935867173158</v>
+        <v>6.117935867173157</v>
       </c>
       <c r="T15">
-        <v>9.547333797339922</v>
+        <v>9.54733379733992</v>
       </c>
       <c r="U15">
         <v>2.256261931989048</v>
       </c>
       <c r="V15">
-        <v>156.4519605250026</v>
+        <v>156.4519605250025</v>
       </c>
       <c r="W15">
-        <v>317.3625972651929</v>
+        <v>317.362597265193</v>
       </c>
       <c r="X15">
         <v>529.9252826830082</v>
@@ -1848,7 +1848,7 @@
         <v>8.857640854841861</v>
       </c>
       <c r="I17">
-        <v>203.2686553663284</v>
+        <v>203.2686553663285</v>
       </c>
       <c r="J17">
         <v>0.1</v>
@@ -1863,7 +1863,7 @@
         <v>0.1</v>
       </c>
       <c r="N17">
-        <v>0.8067223898277804</v>
+        <v>0.8067223898277807</v>
       </c>
       <c r="O17">
         <v>279.6506718572644</v>
@@ -1890,7 +1890,7 @@
         <v>175.1376616030207</v>
       </c>
       <c r="W17">
-        <v>305.3505903441569</v>
+        <v>305.3505903441568</v>
       </c>
       <c r="X17">
         <v>508.6192457104853</v>
@@ -1899,7 +1899,7 @@
         <v>256.6507148634336</v>
       </c>
       <c r="Z17">
-        <v>1.189751567637897</v>
+        <v>1.189751567637896</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1943,7 +1943,7 @@
         <v>0.1</v>
       </c>
       <c r="N18">
-        <v>0.9404242990114836</v>
+        <v>0.9404242990114835</v>
       </c>
       <c r="O18">
         <v>256.5739943439725</v>
@@ -1967,10 +1967,10 @@
         <v>2.158710064671544</v>
       </c>
       <c r="V18">
-        <v>136.6823574408147</v>
+        <v>136.6823574408146</v>
       </c>
       <c r="W18">
-        <v>322.3943807717364</v>
+        <v>322.3943807717365</v>
       </c>
       <c r="X18">
         <v>512.7113852895786</v>
@@ -2106,7 +2106,7 @@
         <v>0.8492861815436832</v>
       </c>
       <c r="O20">
-        <v>287.0333613553369</v>
+        <v>287.033361355337</v>
       </c>
       <c r="P20">
         <v>37.24294389089678</v>
@@ -2115,10 +2115,10 @@
         <v>2.042135949525802</v>
       </c>
       <c r="R20">
-        <v>173.7352628786675</v>
+        <v>173.7352628786676</v>
       </c>
       <c r="S20">
-        <v>7.707053507805433</v>
+        <v>7.707053507805436</v>
       </c>
       <c r="T20">
         <v>10.26482315119547</v>
@@ -2162,13 +2162,13 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>220.03419608591</v>
+        <v>220.0341960859101</v>
       </c>
       <c r="H21">
         <v>36.94902621936846</v>
       </c>
       <c r="I21">
-        <v>183.0851698665415</v>
+        <v>183.0851698665416</v>
       </c>
       <c r="J21">
         <v>0.1</v>
@@ -2183,28 +2183,28 @@
         <v>0.1</v>
       </c>
       <c r="N21">
-        <v>0.8200498231484707</v>
+        <v>0.820049823148471</v>
       </c>
       <c r="O21">
-        <v>300.9254421366176</v>
+        <v>300.9254421366175</v>
       </c>
       <c r="P21">
         <v>77.66441006467498</v>
       </c>
       <c r="Q21">
-        <v>1.35446542400901</v>
+        <v>1.354465424009009</v>
       </c>
       <c r="R21">
-        <v>118.067273963283</v>
+        <v>118.0672739632829</v>
       </c>
       <c r="S21">
-        <v>3.874689087138139</v>
+        <v>3.874689087138138</v>
       </c>
       <c r="T21">
-        <v>5.955074290173563</v>
+        <v>5.955074290173565</v>
       </c>
       <c r="U21">
-        <v>1.784243677989492</v>
+        <v>1.784243677989493</v>
       </c>
       <c r="V21">
         <v>117.1591034267654</v>
@@ -2248,7 +2248,7 @@
         <v>6.712773855206505</v>
       </c>
       <c r="I22">
-        <v>302.4227080048601</v>
+        <v>302.4227080048602</v>
       </c>
       <c r="J22">
         <v>0.1</v>
@@ -2263,34 +2263,34 @@
         <v>0.1</v>
       </c>
       <c r="N22">
-        <v>0.8907383523125689</v>
+        <v>0.890738352312569</v>
       </c>
       <c r="O22">
-        <v>350.7799503801286</v>
+        <v>350.7799503801288</v>
       </c>
       <c r="P22">
         <v>11.26082310813159</v>
       </c>
       <c r="Q22">
-        <v>3.438829384645003</v>
+        <v>3.438829384645004</v>
       </c>
       <c r="R22">
         <v>300.7950778724647</v>
       </c>
       <c r="S22">
-        <v>31.15047159623934</v>
+        <v>31.15047159623935</v>
       </c>
       <c r="T22">
-        <v>46.05182425746363</v>
+        <v>46.05182425746364</v>
       </c>
       <c r="U22">
         <v>3.829767376628153</v>
       </c>
       <c r="V22">
-        <v>276.7143456875078</v>
+        <v>276.7143456875079</v>
       </c>
       <c r="W22">
-        <v>252.5355513239569</v>
+        <v>252.5355513239568</v>
       </c>
       <c r="X22">
         <v>554.958259328817</v>
@@ -2402,13 +2402,13 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>293.1098145879642</v>
+        <v>293.1098145879641</v>
       </c>
       <c r="H24">
         <v>2.717273089910136</v>
       </c>
       <c r="I24">
-        <v>290.3925414980541</v>
+        <v>290.392541498054</v>
       </c>
       <c r="J24">
         <v>0.1</v>
@@ -2423,10 +2423,10 @@
         <v>0.1</v>
       </c>
       <c r="N24">
-        <v>0.8508599447953166</v>
+        <v>0.8508599447953163</v>
       </c>
       <c r="O24">
-        <v>358.5152654778142</v>
+        <v>358.5152654778143</v>
       </c>
       <c r="P24">
         <v>17.22226740642064</v>
@@ -2447,10 +2447,10 @@
         <v>4.68091849566113</v>
       </c>
       <c r="V24">
-        <v>277.6732076337315</v>
+        <v>277.6732076337314</v>
       </c>
       <c r="W24">
-        <v>290.4580085045498</v>
+        <v>290.4580085045499</v>
       </c>
       <c r="X24">
         <v>580.8505500026039</v>
@@ -2562,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>266.3464296812273</v>
+        <v>266.3464296812274</v>
       </c>
       <c r="H26">
         <v>15.10258459900276</v>
@@ -2583,7 +2583,7 @@
         <v>0.1</v>
       </c>
       <c r="N26">
-        <v>0.8578908452917897</v>
+        <v>0.8578908452917899</v>
       </c>
       <c r="O26">
         <v>323.8552710849078</v>
@@ -2610,7 +2610,7 @@
         <v>207.9004552557734</v>
       </c>
       <c r="W26">
-        <v>304.8613709077736</v>
+        <v>304.8613709077734</v>
       </c>
       <c r="X26">
         <v>556.1052159899981</v>
@@ -2888,7 +2888,7 @@
         <v>10.44122343660039</v>
       </c>
       <c r="I30">
-        <v>147.936888963416</v>
+        <v>147.9368889634159</v>
       </c>
       <c r="J30">
         <v>0.1</v>
@@ -2903,7 +2903,7 @@
         <v>0.1</v>
       </c>
       <c r="N30">
-        <v>0.5140871331115491</v>
+        <v>0.514087133111549</v>
       </c>
       <c r="O30">
         <v>336.2713272834573</v>
@@ -2930,7 +2930,7 @@
         <v>119.5448685383368</v>
       </c>
       <c r="W30">
-        <v>396.6651154045256</v>
+        <v>396.6651154045257</v>
       </c>
       <c r="X30">
         <v>544.6020043679416</v>
@@ -2962,13 +2962,13 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>260.0268798387168</v>
+        <v>260.0268798387167</v>
       </c>
       <c r="H31">
         <v>4.225158616411266</v>
       </c>
       <c r="I31">
-        <v>255.8017212223055</v>
+        <v>255.8017212223054</v>
       </c>
       <c r="J31">
         <v>0.1</v>
@@ -2983,7 +2983,7 @@
         <v>0.1</v>
       </c>
       <c r="N31">
-        <v>0.7610136419691222</v>
+        <v>0.7610136419691221</v>
       </c>
       <c r="O31">
         <v>361.2764375039665</v>
@@ -3001,13 +3001,13 @@
         <v>14.3685595129433</v>
       </c>
       <c r="T31">
-        <v>61.5425131801505</v>
+        <v>61.54251318015049</v>
       </c>
       <c r="U31">
-        <v>4.119728207216533</v>
+        <v>4.119728207216532</v>
       </c>
       <c r="V31">
-        <v>238.395216090312</v>
+        <v>238.3952160903119</v>
       </c>
       <c r="W31">
         <v>274.9175650752858</v>

--- a/results/ROI_greedy/dataset_06/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/ROI_greedy/dataset_06/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>166.4644702863601</v>
+        <v>280.618522425897</v>
       </c>
       <c r="H2">
-        <v>21.1568812771752</v>
+        <v>53.52071263306946</v>
       </c>
       <c r="I2">
-        <v>145.3075890091849</v>
+        <v>227.0978097928276</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>178.222193574647</v>
+        <v>283.1434523880713</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.8153170269915005</v>
+        <v>0.8020591960628192</v>
       </c>
       <c r="O2">
-        <v>255.9446111077716</v>
+        <v>405.1352606187629</v>
       </c>
       <c r="P2">
-        <v>77.72241753312456</v>
+        <v>121.9918082306915</v>
       </c>
       <c r="Q2">
-        <v>1.191817328508189</v>
+        <v>1.200267091356324</v>
       </c>
       <c r="R2">
-        <v>85.59126954512045</v>
+        <v>136.7206995537207</v>
       </c>
       <c r="S2">
-        <v>3.293060345153191</v>
+        <v>3.321003815704047</v>
       </c>
       <c r="T2">
-        <v>7.868100600722655</v>
+        <v>5.243176120426095</v>
       </c>
       <c r="U2">
-        <v>2.062816686505399</v>
+        <v>1.656927444562756</v>
       </c>
       <c r="V2">
-        <v>101.6648212762142</v>
+        <v>138.4178721785382</v>
       </c>
       <c r="W2">
-        <v>374.7010711436557</v>
+        <v>292.910850360013</v>
       </c>
       <c r="X2">
         <v>520.0086601528405</v>
       </c>
       <c r="Y2">
-        <v>341.7864665781935</v>
+        <v>236.8652077647693</v>
       </c>
       <c r="Z2">
-        <v>1.096301661370585</v>
+        <v>1.236614077365481</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>283.2195834744782</v>
+        <v>465.727890160208</v>
       </c>
       <c r="H3">
-        <v>26.34796911198112</v>
+        <v>75.15212374776451</v>
       </c>
       <c r="I3">
-        <v>256.871614362497</v>
+        <v>390.5757664124435</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>256.871614362497</v>
+        <v>390.5757664124436</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O3">
-        <v>283.2195834744782</v>
+        <v>465.727890160208</v>
       </c>
       <c r="P3">
-        <v>26.34796911198112</v>
+        <v>75.15212374776451</v>
       </c>
       <c r="Q3">
-        <v>2.374831311647534</v>
+        <v>1.824087160962924</v>
       </c>
       <c r="R3">
-        <v>194.2996323170422</v>
+        <v>253.4917423650494</v>
       </c>
       <c r="S3">
-        <v>10.74919976833018</v>
+        <v>6.197135449203611</v>
       </c>
       <c r="T3">
-        <v>10.74919976833018</v>
+        <v>6.197135449203611</v>
       </c>
       <c r="U3">
-        <v>2.374831311647534</v>
+        <v>1.824087160962924</v>
       </c>
       <c r="V3">
-        <v>194.2996323170422</v>
+        <v>253.4917423650494</v>
       </c>
       <c r="W3">
-        <v>284.05864820944</v>
+        <v>150.3544961594936</v>
       </c>
       <c r="X3">
         <v>540.9302625719371</v>
       </c>
       <c r="Y3">
-        <v>284.05864820944</v>
+        <v>150.3544961594935</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>213.0768555064351</v>
+        <v>339.6497085060864</v>
       </c>
       <c r="H4">
-        <v>39.72198594603772</v>
+        <v>72.40525163325201</v>
       </c>
       <c r="I4">
-        <v>173.3548695603974</v>
+        <v>267.2444568728344</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>173.3548695603974</v>
+        <v>278.0899217242549</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.9999999999999997</v>
+        <v>0.961000151374869</v>
       </c>
       <c r="O4">
-        <v>213.0768555064351</v>
+        <v>362.0365086007783</v>
       </c>
       <c r="P4">
-        <v>39.72198594603772</v>
+        <v>83.94658687652363</v>
       </c>
       <c r="Q4">
-        <v>1.679748088033469</v>
+        <v>1.4615643331545</v>
       </c>
       <c r="R4">
-        <v>106.6319396146482</v>
+        <v>155.3965844554722</v>
       </c>
       <c r="S4">
-        <v>5.364204493599585</v>
+        <v>4.312700754984774</v>
       </c>
       <c r="T4">
-        <v>5.364204493599585</v>
+        <v>4.690954051599523</v>
       </c>
       <c r="U4">
-        <v>1.679748088033469</v>
+        <v>1.545635984286523</v>
       </c>
       <c r="V4">
-        <v>106.6319396146482</v>
+        <v>155.3322944971595</v>
       </c>
       <c r="W4">
-        <v>321.3059069600966</v>
+        <v>227.4163196476596</v>
       </c>
       <c r="X4">
         <v>494.660776520494</v>
       </c>
       <c r="Y4">
-        <v>321.3059069600966</v>
+        <v>216.5708547962392</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>1.050078136606259</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>174.1950739533154</v>
+        <v>319.8066881160671</v>
       </c>
       <c r="H5">
-        <v>21.04685863814086</v>
+        <v>54.96068403478913</v>
       </c>
       <c r="I5">
-        <v>153.1482153151745</v>
+        <v>264.846004081278</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>216.1034168840733</v>
+        <v>298.2091014218247</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.708680212110341</v>
+        <v>0.8881218005034873</v>
       </c>
       <c r="O5">
-        <v>277.646064202827</v>
+        <v>393.6655741372268</v>
       </c>
       <c r="P5">
-        <v>61.54264731875374</v>
+        <v>95.456472715402</v>
       </c>
       <c r="Q5">
-        <v>1.506616765373685</v>
+        <v>1.416831391758895</v>
       </c>
       <c r="R5">
-        <v>123.382232648159</v>
+        <v>162.9633743320668</v>
       </c>
       <c r="S5">
-        <v>4.511441679861252</v>
+        <v>4.124032272917921</v>
       </c>
       <c r="T5">
-        <v>8.276535560401454</v>
+        <v>5.81882656179525</v>
       </c>
       <c r="U5">
-        <v>2.113424470259503</v>
+        <v>1.761098619730297</v>
       </c>
       <c r="V5">
-        <v>108.667269247235</v>
+        <v>168.0548192881779</v>
       </c>
       <c r="W5">
-        <v>318.9902171644601</v>
+        <v>207.2924283983565</v>
       </c>
       <c r="X5">
         <v>472.1384324796346</v>
       </c>
       <c r="Y5">
-        <v>256.0350155955613</v>
+        <v>173.9293310578099</v>
       </c>
       <c r="Z5">
-        <v>1.245885124042347</v>
+        <v>1.191819845092474</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>214.6852318126193</v>
+        <v>400.0941994973705</v>
       </c>
       <c r="H6">
-        <v>26.15503988941962</v>
+        <v>77.65262033680821</v>
       </c>
       <c r="I6">
-        <v>188.5301919231997</v>
+        <v>322.4415791605624</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>212.7968464724148</v>
+        <v>339.9955786322601</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.8859632792896636</v>
+        <v>0.9483699183903677</v>
       </c>
       <c r="O6">
-        <v>266.5274308381955</v>
+        <v>453.3854491071605</v>
       </c>
       <c r="P6">
-        <v>53.73058436578081</v>
+        <v>113.3898704749003</v>
       </c>
       <c r="Q6">
-        <v>1.601494787633478</v>
+        <v>1.385910583034526</v>
       </c>
       <c r="R6">
-        <v>126.7475956741159</v>
+        <v>182.8473571321818</v>
       </c>
       <c r="S6">
-        <v>4.960441692272713</v>
+        <v>3.998465182192097</v>
       </c>
       <c r="T6">
-        <v>8.208178336576154</v>
+        <v>5.152359286293414</v>
       </c>
       <c r="U6">
-        <v>2.105131015358093</v>
+        <v>1.639454723616916</v>
       </c>
       <c r="V6">
-        <v>133.4704062440543</v>
+        <v>195.1336239481511</v>
       </c>
       <c r="W6">
-        <v>372.2143506533694</v>
+        <v>238.3029634160067</v>
       </c>
       <c r="X6">
         <v>560.7445425765691</v>
       </c>
       <c r="Y6">
-        <v>347.9476961041543</v>
+        <v>220.748963944309</v>
       </c>
       <c r="Z6">
-        <v>1.069742248104874</v>
+        <v>1.079520189621938</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>243.1998249441515</v>
+        <v>365.0260776910737</v>
       </c>
       <c r="H7">
-        <v>21.57700732767316</v>
+        <v>46.00516193543458</v>
       </c>
       <c r="I7">
-        <v>221.6228176164784</v>
+        <v>319.0209157556392</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>238.0007999402722</v>
+        <v>364.5911726315516</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.9311851795124051</v>
+        <v>0.8750099829708035</v>
       </c>
       <c r="O7">
-        <v>270.1337736281939</v>
+        <v>434.9269556871402</v>
       </c>
       <c r="P7">
-        <v>32.13297368792174</v>
+        <v>70.33578305558862</v>
       </c>
       <c r="Q7">
-        <v>2.129034573580681</v>
+        <v>1.821897424652642</v>
       </c>
       <c r="R7">
-        <v>169.5885880067284</v>
+        <v>236.4465906216477</v>
       </c>
       <c r="S7">
-        <v>8.406746796974247</v>
+        <v>6.183580203314201</v>
       </c>
       <c r="T7">
-        <v>11.27124912416563</v>
+        <v>7.934459141853808</v>
       </c>
       <c r="U7">
-        <v>2.422255158126809</v>
+        <v>2.071215190578276</v>
       </c>
       <c r="V7">
-        <v>169.3578003200821</v>
+        <v>223.7343255099536</v>
       </c>
       <c r="W7">
-        <v>330.5153522872637</v>
+        <v>233.1172541481029</v>
       </c>
       <c r="X7">
         <v>552.1381699037421</v>
       </c>
       <c r="Y7">
-        <v>314.13736996347</v>
+        <v>187.5469972721905</v>
       </c>
       <c r="Z7">
-        <v>1.052136370549287</v>
+        <v>1.242980466436236</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>271.743047679215</v>
+        <v>440.1724488837825</v>
       </c>
       <c r="H8">
-        <v>25.9268840776354</v>
+        <v>60.66268988766716</v>
       </c>
       <c r="I8">
-        <v>245.8161636015796</v>
+        <v>379.5097589961154</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>245.8161636015796</v>
+        <v>379.5097589961153</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>271.743047679215</v>
+        <v>440.1724488837825</v>
       </c>
       <c r="P8">
-        <v>25.9268840776354</v>
+        <v>60.66268988766716</v>
       </c>
       <c r="Q8">
-        <v>2.349576516520512</v>
+        <v>1.981837734451496</v>
       </c>
       <c r="R8">
-        <v>184.8989656262179</v>
+        <v>259.2861511034073</v>
       </c>
       <c r="S8">
-        <v>10.48113019927533</v>
+        <v>7.256065461305408</v>
       </c>
       <c r="T8">
-        <v>10.48113019927533</v>
+        <v>7.256065461305408</v>
       </c>
       <c r="U8">
-        <v>2.349576516520512</v>
+        <v>1.981837734451496</v>
       </c>
       <c r="V8">
-        <v>184.8989656262179</v>
+        <v>259.2861511034073</v>
       </c>
       <c r="W8">
-        <v>280.0937481341433</v>
+        <v>146.4001527396075</v>
       </c>
       <c r="X8">
         <v>525.9099117357229</v>
       </c>
       <c r="Y8">
-        <v>280.0937481341433</v>
+        <v>146.4001527396076</v>
       </c>
       <c r="Z8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>188.4448050542569</v>
+        <v>334.9731425538863</v>
       </c>
       <c r="H9">
-        <v>27.7877874219213</v>
+        <v>80.96298847877338</v>
       </c>
       <c r="I9">
-        <v>160.6570176323356</v>
+        <v>254.0101540751129</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
-        <v>180.8630823446853</v>
+        <v>273.1787742638789</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.8882797724643364</v>
+        <v>0.9298312241116875</v>
       </c>
       <c r="O9">
-        <v>234.5249700383749</v>
+        <v>421.6452351407307</v>
       </c>
       <c r="P9">
-        <v>53.66188769368962</v>
+        <v>148.4664608768517</v>
       </c>
       <c r="Q9">
-        <v>1.474859041092171</v>
+        <v>1.043805205395567</v>
       </c>
       <c r="R9">
-        <v>101.7193621175744</v>
+        <v>118.2087095739638</v>
       </c>
       <c r="S9">
-        <v>4.370419679924042</v>
+        <v>2.840003275153654</v>
       </c>
       <c r="T9">
-        <v>6.781569262531354</v>
+        <v>4.137361390034515</v>
       </c>
       <c r="U9">
-        <v>1.914208529821451</v>
+        <v>1.420058239244011</v>
       </c>
       <c r="V9">
-        <v>107.4653979244286</v>
+        <v>139.0379952120128</v>
       </c>
       <c r="W9">
-        <v>377.8555177090963</v>
+        <v>284.5023812663189</v>
       </c>
       <c r="X9">
         <v>538.5125353414319</v>
       </c>
       <c r="Y9">
-        <v>357.6494529967466</v>
+        <v>265.3337610775529</v>
       </c>
       <c r="Z9">
-        <v>1.05649684220972</v>
+        <v>1.072243426961273</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>180.2433015588894</v>
+        <v>377.1752228115829</v>
       </c>
       <c r="H10">
-        <v>27.00057124799399</v>
+        <v>69.28165551473141</v>
       </c>
       <c r="I10">
-        <v>153.2427303108954</v>
+        <v>307.8935672968515</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>206.5071356307721</v>
+        <v>307.8935672968515</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.7420699039905734</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O10">
-        <v>246.3321919146987</v>
+        <v>377.1752228115829</v>
       </c>
       <c r="P10">
-        <v>39.82505628392656</v>
+        <v>69.28165551473141</v>
       </c>
       <c r="Q10">
-        <v>1.822184729558462</v>
+        <v>1.694529701497374</v>
       </c>
       <c r="R10">
-        <v>133.9385262163949</v>
+        <v>190.4937442582298</v>
       </c>
       <c r="S10">
-        <v>6.185357031475651</v>
+        <v>5.444085018023044</v>
       </c>
       <c r="T10">
-        <v>6.675536598962903</v>
+        <v>5.444085018023044</v>
       </c>
       <c r="U10">
-        <v>1.898449590413</v>
+        <v>1.694529701497374</v>
       </c>
       <c r="V10">
-        <v>101.9835068842241</v>
+        <v>190.4937442582298</v>
       </c>
       <c r="W10">
-        <v>380.3125890669384</v>
+        <v>225.6617520809822</v>
       </c>
       <c r="X10">
         <v>533.5553193778337</v>
       </c>
       <c r="Y10">
-        <v>327.0481837470616</v>
+        <v>225.6617520809822</v>
       </c>
       <c r="Z10">
-        <v>1.162864091491397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>241.5640399503285</v>
+        <v>378.7907778331442</v>
       </c>
       <c r="H11">
-        <v>32.93945463603316</v>
+        <v>68.0313210643661</v>
       </c>
       <c r="I11">
-        <v>208.6245853142953</v>
+        <v>310.7594567687781</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
-        <v>215.8225323418171</v>
+        <v>335.6430235840572</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.966648769480094</v>
+        <v>0.9258630000720176</v>
       </c>
       <c r="O11">
-        <v>250.740036324805</v>
+        <v>417.8234100833093</v>
       </c>
       <c r="P11">
-        <v>34.91750398298787</v>
+        <v>82.18038649925215</v>
       </c>
       <c r="Q11">
-        <v>1.97142844029196</v>
+        <v>1.626142212820327</v>
       </c>
       <c r="R11">
-        <v>146.9851719257471</v>
+        <v>202.0060280317336</v>
       </c>
       <c r="S11">
-        <v>7.180926690721303</v>
+        <v>5.084222986553021</v>
       </c>
       <c r="T11">
-        <v>7.333577395846636</v>
+        <v>5.567888024322811</v>
       </c>
       <c r="U11">
-        <v>1.992463445388212</v>
+        <v>1.71701581225569</v>
       </c>
       <c r="V11">
-        <v>142.993926040976</v>
+        <v>193.9486027726179</v>
       </c>
       <c r="W11">
-        <v>341.1015602032033</v>
+        <v>238.9666887487206</v>
       </c>
       <c r="X11">
         <v>549.7261455174987</v>
       </c>
       <c r="Y11">
-        <v>333.9036131756816</v>
+        <v>214.0831219334415</v>
       </c>
       <c r="Z11">
-        <v>1.021556960582318</v>
+        <v>1.116233202274654</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>139.0466503823341</v>
+        <v>309.0724851918887</v>
       </c>
       <c r="H12">
-        <v>11.25730045977397</v>
+        <v>42.81603161538153</v>
       </c>
       <c r="I12">
-        <v>127.7893499225601</v>
+        <v>266.2564535765072</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>176.5326939193888</v>
+        <v>309.1793925987661</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N12">
-        <v>0.7238848911517395</v>
+        <v>0.8611714103534654</v>
       </c>
       <c r="O12">
-        <v>220.7449590799793</v>
+        <v>398.5136672084221</v>
       </c>
       <c r="P12">
-        <v>44.21226516059056</v>
+        <v>89.33427460965615</v>
       </c>
       <c r="Q12">
-        <v>1.608005760887722</v>
+        <v>1.495356565813092</v>
       </c>
       <c r="R12">
-        <v>105.4391168392636</v>
+        <v>175.5927985090668</v>
       </c>
       <c r="S12">
-        <v>4.99284436746626</v>
+        <v>4.460926883323534</v>
       </c>
       <c r="T12">
-        <v>12.35168687903405</v>
+        <v>7.218615867259761</v>
       </c>
       <c r="U12">
-        <v>2.513792643141973</v>
+        <v>1.976663226390614</v>
       </c>
       <c r="V12">
-        <v>99.49083084514155</v>
+        <v>181.6235783824046</v>
       </c>
       <c r="W12">
-        <v>383.2335089747941</v>
+        <v>244.766405320847</v>
       </c>
       <c r="X12">
         <v>511.0228588973541</v>
       </c>
       <c r="Y12">
-        <v>334.4901649779654</v>
+        <v>201.8434662985881</v>
       </c>
       <c r="Z12">
-        <v>1.145724296557538</v>
+        <v>1.212654587286778</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>281.0444485730477</v>
+        <v>421.2009073334452</v>
       </c>
       <c r="H13">
-        <v>22.07458385618751</v>
+        <v>48.59465714741815</v>
       </c>
       <c r="I13">
-        <v>258.9698647168602</v>
+        <v>372.606250186027</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
-        <v>262.8143150909896</v>
+        <v>394.5425338673454</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N13">
-        <v>0.9853719902099001</v>
+        <v>0.9444007127284942</v>
       </c>
       <c r="O13">
-        <v>334.6860897915695</v>
+        <v>463.7176876463348</v>
       </c>
       <c r="P13">
-        <v>71.87177470057996</v>
+        <v>69.17515377898948</v>
       </c>
       <c r="Q13">
-        <v>1.538309422745678</v>
+        <v>1.902634186546451</v>
       </c>
       <c r="R13">
-        <v>152.2532868396329</v>
+        <v>262.9275214278321</v>
       </c>
       <c r="S13">
-        <v>4.65671108283999</v>
+        <v>6.703529552357561</v>
       </c>
       <c r="T13">
-        <v>12.73158535644471</v>
+        <v>8.667638214951861</v>
       </c>
       <c r="U13">
-        <v>2.544085941849371</v>
+        <v>2.159596344795658</v>
       </c>
       <c r="V13">
-        <v>202.8102262561584</v>
+        <v>267.6614062338646</v>
       </c>
       <c r="W13">
-        <v>313.8607016039303</v>
+        <v>200.2243161347635</v>
       </c>
       <c r="X13">
         <v>572.8305663207905</v>
       </c>
       <c r="Y13">
-        <v>310.0162512298009</v>
+        <v>178.2880324534451</v>
       </c>
       <c r="Z13">
-        <v>1.012400802728499</v>
+        <v>1.123038452886883</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>171.2779535060387</v>
+        <v>413.7946032633157</v>
       </c>
       <c r="H14">
-        <v>27.06916313780016</v>
+        <v>103.3313235675519</v>
       </c>
       <c r="I14">
-        <v>144.2087903682385</v>
+        <v>310.4632796957638</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
-        <v>195.6186536658408</v>
+        <v>310.4632796957637</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N14">
-        <v>0.7371934509608603</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>246.6460399241791</v>
+        <v>413.7946032633157</v>
       </c>
       <c r="P14">
-        <v>51.02738625833838</v>
+        <v>103.3313235675519</v>
       </c>
       <c r="Q14">
-        <v>1.575591798047751</v>
+        <v>1.387429164054438</v>
       </c>
       <c r="R14">
-        <v>115.2203224013883</v>
+        <v>167.0983878177966</v>
       </c>
       <c r="S14">
-        <v>4.833601287659031</v>
+        <v>4.004541788268117</v>
       </c>
       <c r="T14">
-        <v>6.327419604149536</v>
+        <v>4.004541788268117</v>
       </c>
       <c r="U14">
-        <v>1.844892507572075</v>
+        <v>1.387429164054438</v>
       </c>
       <c r="V14">
-        <v>94.26909410906481</v>
+        <v>167.0983878177966</v>
       </c>
       <c r="W14">
-        <v>360.1651623871875</v>
+        <v>193.9106730596622</v>
       </c>
       <c r="X14">
         <v>504.373952755426</v>
       </c>
       <c r="Y14">
-        <v>308.7552990895852</v>
+        <v>193.9106730596623</v>
       </c>
       <c r="Z14">
-        <v>1.166506820932928</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>237.4315732438608</v>
+        <v>382.9148443253228</v>
       </c>
       <c r="H15">
-        <v>24.86888782604564</v>
+        <v>70.26131162406392</v>
       </c>
       <c r="I15">
-        <v>212.5626854178152</v>
+        <v>312.6535327012589</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K15">
-        <v>226.3540891488511</v>
+        <v>322.0703082085795</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N15">
-        <v>0.9390715503179329</v>
+        <v>0.9707617396968425</v>
       </c>
       <c r="O15">
-        <v>270.58170258979</v>
+        <v>430.7036338611785</v>
       </c>
       <c r="P15">
-        <v>44.22761344093895</v>
+        <v>108.633325652599</v>
       </c>
       <c r="Q15">
-        <v>1.811224763027995</v>
+        <v>1.377442002657489</v>
       </c>
       <c r="R15">
-        <v>146.2479404749926</v>
+        <v>172.4342025663203</v>
       </c>
       <c r="S15">
-        <v>6.117935867173157</v>
+        <v>3.964746833200481</v>
       </c>
       <c r="T15">
-        <v>9.54733379733992</v>
+        <v>5.449867579673501</v>
       </c>
       <c r="U15">
-        <v>2.256261931989048</v>
+        <v>1.695591311072354</v>
       </c>
       <c r="V15">
-        <v>156.4519605250025</v>
+        <v>193.5190632069491</v>
       </c>
       <c r="W15">
-        <v>317.362597265193</v>
+        <v>217.2717499817493</v>
       </c>
       <c r="X15">
         <v>529.9252826830082</v>
       </c>
       <c r="Y15">
-        <v>303.5711935341571</v>
+        <v>207.8549744744287</v>
       </c>
       <c r="Z15">
-        <v>1.04543054158228</v>
+        <v>1.045304547226408</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>258.0476107321789</v>
+        <v>386.6499449159912</v>
       </c>
       <c r="H16">
-        <v>30.12617029505304</v>
+        <v>64.03956029360563</v>
       </c>
       <c r="I16">
-        <v>227.9214404371259</v>
+        <v>322.6103846223856</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K16">
-        <v>227.9214404371258</v>
+        <v>325.8446150365355</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.9900743168218775</v>
       </c>
       <c r="O16">
-        <v>258.0476107321789</v>
+        <v>432.0298902355943</v>
       </c>
       <c r="P16">
-        <v>30.12617029505304</v>
+        <v>106.1852751990588</v>
       </c>
       <c r="Q16">
-        <v>2.147749866593428</v>
+        <v>1.40330932862554</v>
       </c>
       <c r="R16">
-        <v>163.2179622049548</v>
+        <v>176.8338277870261</v>
       </c>
       <c r="S16">
-        <v>8.565563037215931</v>
+        <v>4.068642186270131</v>
       </c>
       <c r="T16">
-        <v>8.565563037215931</v>
+        <v>6.037673324790119</v>
       </c>
       <c r="U16">
-        <v>2.147749866593428</v>
+        <v>1.798018726606395</v>
       </c>
       <c r="V16">
-        <v>163.2179622049548</v>
+        <v>207.4660559708434</v>
       </c>
       <c r="W16">
-        <v>282.7258442110621</v>
+        <v>188.0369000258023</v>
       </c>
       <c r="X16">
         <v>510.6472846481879</v>
       </c>
       <c r="Y16">
-        <v>282.7258442110621</v>
+        <v>184.8026696116524</v>
       </c>
       <c r="Z16">
-        <v>0.9999999999999998</v>
+        <v>1.017500994011322</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>212.1262962211703</v>
+        <v>384.0046276909667</v>
       </c>
       <c r="H17">
-        <v>8.857640854841861</v>
+        <v>38.42857830343893</v>
       </c>
       <c r="I17">
-        <v>203.2686553663285</v>
+        <v>345.5760493875277</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K17">
-        <v>251.9685308470517</v>
+        <v>386.3337901465525</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N17">
-        <v>0.8067223898277807</v>
+        <v>0.8945012271808694</v>
       </c>
       <c r="O17">
-        <v>279.6506718572644</v>
+        <v>452.8409278940583</v>
       </c>
       <c r="P17">
-        <v>27.68214101021263</v>
+        <v>66.50713774750568</v>
       </c>
       <c r="Q17">
-        <v>2.312753747364991</v>
+        <v>1.918231634811966</v>
       </c>
       <c r="R17">
-        <v>187.9465554905964</v>
+        <v>258.7576945784901</v>
       </c>
       <c r="S17">
-        <v>10.10220530825612</v>
+        <v>6.808907182463162</v>
       </c>
       <c r="T17">
-        <v>23.94839661005396</v>
+        <v>9.992683691256996</v>
       </c>
       <c r="U17">
-        <v>3.175901374227704</v>
+        <v>2.301853194347262</v>
       </c>
       <c r="V17">
-        <v>175.1376616030207</v>
+        <v>257.119103665533</v>
       </c>
       <c r="W17">
-        <v>305.3505903441568</v>
+        <v>163.0431963229576</v>
       </c>
       <c r="X17">
         <v>508.6192457104853</v>
       </c>
       <c r="Y17">
-        <v>256.6507148634336</v>
+        <v>122.2854555639328</v>
       </c>
       <c r="Z17">
-        <v>1.189751567637896</v>
+        <v>1.333299987075863</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>215.1626973020598</v>
+        <v>366.5303754629872</v>
       </c>
       <c r="H18">
-        <v>24.84569278421755</v>
+        <v>62.03816709739459</v>
       </c>
       <c r="I18">
-        <v>190.3170045178422</v>
+        <v>304.4922083655926</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K18">
-        <v>202.3735506599434</v>
+        <v>318.1888055733976</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N18">
-        <v>0.9404242990114835</v>
+        <v>0.9569544969279392</v>
       </c>
       <c r="O18">
-        <v>256.5739943439725</v>
+        <v>401.7842776144531</v>
       </c>
       <c r="P18">
-        <v>54.20044368402914</v>
+        <v>83.59547204105544</v>
       </c>
       <c r="Q18">
-        <v>1.554728005519601</v>
+        <v>1.569925965300331</v>
       </c>
       <c r="R18">
-        <v>118.1066029527953</v>
+        <v>186.9501034346069</v>
       </c>
       <c r="S18">
-        <v>4.733798782897701</v>
+        <v>4.806292348192359</v>
       </c>
       <c r="T18">
-        <v>8.6599596626557</v>
+        <v>5.908143206222808</v>
       </c>
       <c r="U18">
-        <v>2.158710064671544</v>
+        <v>1.77633160374957</v>
       </c>
       <c r="V18">
-        <v>136.6823574408146</v>
+        <v>194.2918515117939</v>
       </c>
       <c r="W18">
-        <v>322.3943807717365</v>
+        <v>208.219176923986</v>
       </c>
       <c r="X18">
         <v>512.7113852895786</v>
       </c>
       <c r="Y18">
-        <v>310.3378346296353</v>
+        <v>194.522579716181</v>
       </c>
       <c r="Z18">
-        <v>1.038849746298223</v>
+        <v>1.070411348789375</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>20</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>234.0289364855249</v>
+        <v>395.4228379328861</v>
       </c>
       <c r="H19">
-        <v>29.91256625608015</v>
+        <v>69.92748121230528</v>
       </c>
       <c r="I19">
-        <v>204.1163702294447</v>
+        <v>325.4953567205808</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K19">
-        <v>240.6178879814562</v>
+        <v>371.6573537295689</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N19">
-        <v>0.8483008970853217</v>
+        <v>0.875794205211456</v>
       </c>
       <c r="O19">
-        <v>311.6478797008155</v>
+        <v>460.8545291820707</v>
       </c>
       <c r="P19">
-        <v>71.02999171935932</v>
+        <v>89.19717545250171</v>
       </c>
       <c r="Q19">
-        <v>1.478771753338678</v>
+        <v>1.642233064525224</v>
       </c>
       <c r="R19">
-        <v>135.5807425869874</v>
+        <v>225.174802939213</v>
       </c>
       <c r="S19">
-        <v>4.387553372273242</v>
+        <v>5.166694201292056</v>
       </c>
       <c r="T19">
-        <v>7.82376658966715</v>
+        <v>5.654755913949646</v>
       </c>
       <c r="U19">
-        <v>2.057166099678511</v>
+        <v>1.732496945762914</v>
       </c>
       <c r="V19">
-        <v>142.5812529730493</v>
+        <v>204.3462090953683</v>
       </c>
       <c r="W19">
-        <v>355.4039652775277</v>
+        <v>234.0249787863916</v>
       </c>
       <c r="X19">
         <v>559.5203355069724</v>
       </c>
       <c r="Y19">
-        <v>318.9024475255162</v>
+        <v>187.8629817774035</v>
       </c>
       <c r="Z19">
-        <v>1.11445982316925</v>
+        <v>1.245721624197815</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>235.0412939547336</v>
+        <v>388.0125266116507</v>
       </c>
       <c r="H20">
-        <v>22.89774412015661</v>
+        <v>56.08941626539183</v>
       </c>
       <c r="I20">
-        <v>212.143549834577</v>
+        <v>331.9231103462589</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K20">
-        <v>249.7904174644402</v>
+        <v>366.8793632898735</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N20">
-        <v>0.8492861815436832</v>
+        <v>0.9047200348633525</v>
       </c>
       <c r="O20">
-        <v>287.033361355337</v>
+        <v>436.7025885585026</v>
       </c>
       <c r="P20">
-        <v>37.24294389089678</v>
+        <v>69.82322526862917</v>
       </c>
       <c r="Q20">
-        <v>2.042135949525802</v>
+        <v>1.833285693357223</v>
       </c>
       <c r="R20">
-        <v>173.7352628786676</v>
+        <v>238.873443340837</v>
       </c>
       <c r="S20">
-        <v>7.707053507805436</v>
+        <v>6.254402985230022</v>
       </c>
       <c r="T20">
-        <v>10.26482315119547</v>
+        <v>6.917749415963549</v>
       </c>
       <c r="U20">
-        <v>2.328722821992772</v>
+        <v>1.934090487824186</v>
       </c>
       <c r="V20">
-        <v>158.8210505298175</v>
+        <v>223.4411038797534</v>
       </c>
       <c r="W20">
-        <v>316.8381186550183</v>
+        <v>197.0585581433364</v>
       </c>
       <c r="X20">
         <v>528.9816684895953</v>
       </c>
       <c r="Y20">
-        <v>279.1912510251551</v>
+        <v>162.1023051997219</v>
       </c>
       <c r="Z20">
-        <v>1.134842576519245</v>
+        <v>1.215643157575988</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>220.0341960859101</v>
+        <v>414.2937047915112</v>
       </c>
       <c r="H21">
-        <v>36.94902621936846</v>
+        <v>103.2295888245924</v>
       </c>
       <c r="I21">
-        <v>183.0851698665416</v>
+        <v>311.0641159669188</v>
       </c>
       <c r="J21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K21">
-        <v>223.2610320719426</v>
+        <v>311.0641159669187</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N21">
-        <v>0.820049823148471</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>300.9254421366175</v>
+        <v>414.2937047915112</v>
       </c>
       <c r="P21">
-        <v>77.66441006467498</v>
+        <v>103.2295888245924</v>
       </c>
       <c r="Q21">
-        <v>1.354465424009009</v>
+        <v>1.389619628791419</v>
       </c>
       <c r="R21">
-        <v>118.0672739632829</v>
+        <v>167.6142530641979</v>
       </c>
       <c r="S21">
-        <v>3.874689087138138</v>
+        <v>4.013323210029236</v>
       </c>
       <c r="T21">
-        <v>5.955074290173565</v>
+        <v>4.013323210029236</v>
       </c>
       <c r="U21">
-        <v>1.784243677989493</v>
+        <v>1.389619628791419</v>
       </c>
       <c r="V21">
-        <v>117.1591034267654</v>
+        <v>167.6142530641979</v>
       </c>
       <c r="W21">
-        <v>317.1434159769317</v>
+        <v>189.1644698765545</v>
       </c>
       <c r="X21">
         <v>500.2285858434733</v>
       </c>
       <c r="Y21">
-        <v>276.9675537715307</v>
+        <v>189.1644698765546</v>
       </c>
       <c r="Z21">
-        <v>1.145056204809253</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>309.1354818600666</v>
+        <v>478.9049232066212</v>
       </c>
       <c r="H22">
-        <v>6.712773855206505</v>
+        <v>26.44480596620625</v>
       </c>
       <c r="I22">
-        <v>302.4227080048602</v>
+        <v>452.4601172404149</v>
       </c>
       <c r="J22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K22">
-        <v>339.5191272719971</v>
+        <v>503.3898522787755</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N22">
-        <v>0.890738352312569</v>
+        <v>0.8988264566561904</v>
       </c>
       <c r="O22">
-        <v>350.7799503801288</v>
+        <v>554.9582593288168</v>
       </c>
       <c r="P22">
-        <v>11.26082310813159</v>
+        <v>51.56840705004143</v>
       </c>
       <c r="Q22">
-        <v>3.438829384645004</v>
+        <v>2.3759836839978</v>
       </c>
       <c r="R22">
-        <v>300.7950778724647</v>
+        <v>380.8641585181198</v>
       </c>
       <c r="S22">
-        <v>31.15047159623935</v>
+        <v>10.76159398893767</v>
       </c>
       <c r="T22">
-        <v>46.05182425746364</v>
+        <v>18.10960246101304</v>
       </c>
       <c r="U22">
-        <v>3.829767376628153</v>
+        <v>2.896442320302264</v>
       </c>
       <c r="V22">
-        <v>276.7143456875079</v>
+        <v>375.8642620877133</v>
       </c>
       <c r="W22">
-        <v>252.5355513239568</v>
+        <v>102.4981420884021</v>
       </c>
       <c r="X22">
         <v>554.958259328817</v>
       </c>
       <c r="Y22">
-        <v>215.4391320568199</v>
+        <v>51.56840705004151</v>
       </c>
       <c r="Z22">
-        <v>1.172189791673284</v>
+        <v>1.987615052544455</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>264.7255193171562</v>
+        <v>400.3237502075561</v>
       </c>
       <c r="H23">
-        <v>6.907039455684126</v>
+        <v>20.97226794406514</v>
       </c>
       <c r="I23">
-        <v>257.818479861472</v>
+        <v>379.3514822634909</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K23">
-        <v>275.2638326703983</v>
+        <v>417.690831077323</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N23">
-        <v>0.9366231566287339</v>
+        <v>0.9082111792711709</v>
       </c>
       <c r="O23">
-        <v>306.2078168977224</v>
+        <v>446.9723363713912</v>
       </c>
       <c r="P23">
-        <v>30.94398422732404</v>
+        <v>29.2815052940683</v>
       </c>
       <c r="Q23">
-        <v>2.292085402075702</v>
+        <v>2.72554060729796</v>
       </c>
       <c r="R23">
-        <v>204.3375781408882</v>
+        <v>337.8828993555295</v>
       </c>
       <c r="S23">
-        <v>9.895552384212243</v>
+        <v>15.26466388536168</v>
       </c>
       <c r="T23">
-        <v>38.3269157524938</v>
+        <v>19.08824316355553</v>
       </c>
       <c r="U23">
-        <v>3.646152410527324</v>
+        <v>2.949072604354235</v>
       </c>
       <c r="V23">
-        <v>232.634361300522</v>
+        <v>317.5027414184719</v>
       </c>
       <c r="W23">
-        <v>234.7224712209377</v>
+        <v>113.1894688189188</v>
       </c>
       <c r="X23">
         <v>492.5409510824098</v>
       </c>
       <c r="Y23">
-        <v>217.2771184120115</v>
+        <v>74.85012000508681</v>
       </c>
       <c r="Z23">
-        <v>1.080290796087628</v>
+        <v>1.512214927794725</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>20</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>293.1098145879641</v>
+        <v>525.1613568098834</v>
       </c>
       <c r="H24">
-        <v>2.717273089910136</v>
+        <v>22.75836631534771</v>
       </c>
       <c r="I24">
-        <v>290.392541498054</v>
+        <v>502.4029904945357</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K24">
-        <v>341.2929980713936</v>
+        <v>502.4029904945357</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N24">
-        <v>0.8508599447953163</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O24">
-        <v>358.5152654778143</v>
+        <v>525.1613568098834</v>
       </c>
       <c r="P24">
-        <v>17.22226740642064</v>
+        <v>22.75836631534771</v>
       </c>
       <c r="Q24">
-        <v>3.035768077482977</v>
+        <v>3.138772733756333</v>
       </c>
       <c r="R24">
-        <v>289.0101884571063</v>
+        <v>430.9696508390837</v>
       </c>
       <c r="S24">
-        <v>20.81696079949125</v>
+        <v>23.07552965503182</v>
       </c>
       <c r="T24">
-        <v>107.869104388642</v>
+        <v>23.07552965503182</v>
       </c>
       <c r="U24">
-        <v>4.68091849566113</v>
+        <v>3.138772733756333</v>
       </c>
       <c r="V24">
-        <v>277.6732076337314</v>
+        <v>430.9696508390837</v>
       </c>
       <c r="W24">
-        <v>290.4580085045499</v>
+        <v>78.4475595080682</v>
       </c>
       <c r="X24">
         <v>580.8505500026039</v>
       </c>
       <c r="Y24">
-        <v>239.5575519312102</v>
+        <v>78.44755950806814</v>
       </c>
       <c r="Z24">
-        <v>1.212476944112185</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>263.7232578931826</v>
+        <v>481.0689128555515</v>
       </c>
       <c r="H25">
-        <v>16.58270297274271</v>
+        <v>52.26597900241914</v>
       </c>
       <c r="I25">
-        <v>247.1405549204399</v>
+        <v>428.8029338531323</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K25">
-        <v>279.6253618724332</v>
+        <v>441.8726311919104</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N25">
-        <v>0.8838273941445514</v>
+        <v>0.9704220256784772</v>
       </c>
       <c r="O25">
-        <v>316.0010099754927</v>
+        <v>515.6290773151302</v>
       </c>
       <c r="P25">
-        <v>36.37564810305933</v>
+        <v>73.75644612321969</v>
       </c>
       <c r="Q25">
-        <v>2.161845867107615</v>
+        <v>1.944619268116998</v>
       </c>
       <c r="R25">
-        <v>200.9868173574736</v>
+        <v>298.4444249128642</v>
       </c>
       <c r="S25">
-        <v>8.687158207606362</v>
+        <v>6.990969663230588</v>
       </c>
       <c r="T25">
-        <v>15.90351454323636</v>
+        <v>9.204245707007328</v>
       </c>
       <c r="U25">
-        <v>2.766540125255461</v>
+        <v>2.219664867493385</v>
       </c>
       <c r="V25">
-        <v>201.2638417611541</v>
+        <v>312.7899764963156</v>
       </c>
       <c r="W25">
-        <v>295.400441048192</v>
+        <v>113.7380621154995</v>
       </c>
       <c r="X25">
         <v>542.5409959686318</v>
       </c>
       <c r="Y25">
-        <v>262.9156340961986</v>
+        <v>100.6683647767214</v>
       </c>
       <c r="Z25">
-        <v>1.123556010899327</v>
+        <v>1.129829240474564</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>266.3464296812274</v>
+        <v>418.9184958882352</v>
       </c>
       <c r="H26">
-        <v>15.10258459900276</v>
+        <v>32.89323021069467</v>
       </c>
       <c r="I26">
-        <v>251.2438450822246</v>
+        <v>386.0252656775405</v>
       </c>
       <c r="J26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K26">
-        <v>292.8622521863727</v>
+        <v>463.9506792759894</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N26">
-        <v>0.8578908452917899</v>
+        <v>0.8320394449684735</v>
       </c>
       <c r="O26">
-        <v>323.8552710849078</v>
+        <v>523.2518201733564</v>
       </c>
       <c r="P26">
-        <v>30.99301889853508</v>
+        <v>59.30114089736703</v>
       </c>
       <c r="Q26">
-        <v>2.346534739509293</v>
+        <v>2.17743429467766</v>
       </c>
       <c r="R26">
-        <v>220.1360566586921</v>
+        <v>334.8263413725504</v>
       </c>
       <c r="S26">
-        <v>10.44929737710111</v>
+        <v>8.823638335710143</v>
       </c>
       <c r="T26">
-        <v>17.6358177592208</v>
+        <v>12.73570559063035</v>
       </c>
       <c r="U26">
-        <v>2.869931933989182</v>
+        <v>2.544409512521269</v>
       </c>
       <c r="V26">
-        <v>207.9004552557734</v>
+        <v>302.3314178318969</v>
       </c>
       <c r="W26">
-        <v>304.8613709077734</v>
+        <v>170.0799503124576</v>
       </c>
       <c r="X26">
         <v>556.1052159899981</v>
       </c>
       <c r="Y26">
-        <v>263.2429638036254</v>
+        <v>92.15453671400871</v>
       </c>
       <c r="Z26">
-        <v>1.158098839576942</v>
+        <v>1.845594979662062</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>327.7493575140708</v>
+        <v>434.7652362756704</v>
       </c>
       <c r="H27">
-        <v>7.439591744972518</v>
+        <v>19.82674935785023</v>
       </c>
       <c r="I27">
-        <v>320.3097657690983</v>
+        <v>414.9384869178202</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K27">
-        <v>320.3097657690982</v>
+        <v>418.7405754382737</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.9909201812686195</v>
       </c>
       <c r="O27">
-        <v>327.7493575140708</v>
+        <v>457.5724425271203</v>
       </c>
       <c r="P27">
-        <v>7.439591744972518</v>
+        <v>38.83186708884663</v>
       </c>
       <c r="Q27">
-        <v>3.78543318799734</v>
+        <v>2.46669399024595</v>
       </c>
       <c r="R27">
-        <v>292.1476882725283</v>
+        <v>322.9542422601862</v>
       </c>
       <c r="S27">
-        <v>44.05475041497476</v>
+        <v>11.78342626380036</v>
       </c>
       <c r="T27">
-        <v>44.05475041497476</v>
+        <v>21.92821568622538</v>
       </c>
       <c r="U27">
-        <v>3.78543318799734</v>
+        <v>3.087774195062352</v>
       </c>
       <c r="V27">
-        <v>292.1476882725283</v>
+        <v>353.7179618786812</v>
       </c>
       <c r="W27">
-        <v>213.3215577533761</v>
+        <v>118.6928366046542</v>
       </c>
       <c r="X27">
         <v>533.6313235224744</v>
       </c>
       <c r="Y27">
-        <v>213.3215577533762</v>
+        <v>114.8907480842008</v>
       </c>
       <c r="Z27">
-        <v>0.9999999999999998</v>
+        <v>1.033093078283963</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>199.4465113357746</v>
+        <v>512.2066685333054</v>
       </c>
       <c r="H28">
-        <v>6.328380100051852</v>
+        <v>24.59661942920184</v>
       </c>
       <c r="I28">
-        <v>193.1181312357228</v>
+        <v>487.6100491041036</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K28">
-        <v>357.5867697669695</v>
+        <v>560.148534548794</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N28">
-        <v>0.5400594976194816</v>
+        <v>0.8705013385367133</v>
       </c>
       <c r="O28">
-        <v>386.3423182221715</v>
+        <v>609.3857924449944</v>
       </c>
       <c r="P28">
-        <v>28.75554845520194</v>
+        <v>49.2372578962004</v>
       </c>
       <c r="Q28">
-        <v>2.597893072862287</v>
+        <v>2.515800941050484</v>
       </c>
       <c r="R28">
-        <v>282.8829296288445</v>
+        <v>436.2773947987877</v>
       </c>
       <c r="S28">
-        <v>13.43540078270638</v>
+        <v>12.37651767142825</v>
       </c>
       <c r="T28">
-        <v>31.51620291172783</v>
+        <v>20.82427099413501</v>
       </c>
       <c r="U28">
-        <v>3.450501791734585</v>
+        <v>3.036119181156139</v>
       </c>
       <c r="V28">
-        <v>171.2820443617164</v>
+        <v>412.9317810635062</v>
       </c>
       <c r="W28">
-        <v>464.1607184749214</v>
+        <v>169.6688006065406</v>
       </c>
       <c r="X28">
         <v>657.2788497106442</v>
       </c>
       <c r="Y28">
-        <v>299.6920799436747</v>
+        <v>97.13031516185015</v>
       </c>
       <c r="Z28">
-        <v>1.548792075393376</v>
+        <v>1.746816123512192</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>244.9324652056029</v>
+        <v>350.8346975919519</v>
       </c>
       <c r="H29">
-        <v>8.741336197315889</v>
+        <v>17.69340830520222</v>
       </c>
       <c r="I29">
-        <v>236.191129008287</v>
+        <v>333.1412892867496</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K29">
-        <v>236.191129008287</v>
+        <v>355.5023040968084</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.9371002253645884</v>
       </c>
       <c r="O29">
-        <v>244.9324652056029</v>
+        <v>381.9921278821134</v>
       </c>
       <c r="P29">
-        <v>8.741336197315889</v>
+        <v>26.48982378530496</v>
       </c>
       <c r="Q29">
-        <v>3.332919459353522</v>
+        <v>2.668639349615304</v>
       </c>
       <c r="R29">
-        <v>207.0569594955016</v>
+        <v>284.8105179789682</v>
       </c>
       <c r="S29">
-        <v>28.02002573483123</v>
+        <v>14.42033480396426</v>
       </c>
       <c r="T29">
-        <v>28.02002573483123</v>
+        <v>19.82855374952261</v>
       </c>
       <c r="U29">
-        <v>3.332919459353522</v>
+        <v>2.987123007422312</v>
       </c>
       <c r="V29">
-        <v>207.0569594955016</v>
+        <v>280.288902258563</v>
       </c>
       <c r="W29">
-        <v>225.7461782170983</v>
+        <v>128.7960179386357</v>
       </c>
       <c r="X29">
         <v>461.9373072253853</v>
       </c>
       <c r="Y29">
-        <v>225.7461782170983</v>
+        <v>106.4350031285769</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>1.210090798635539</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>20</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>158.3781124000163</v>
+        <v>368.4128088249773</v>
       </c>
       <c r="H30">
-        <v>10.44122343660039</v>
+        <v>40.17793237164667</v>
       </c>
       <c r="I30">
-        <v>147.9368889634159</v>
+        <v>328.2348764533306</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K30">
-        <v>287.7661770447694</v>
+        <v>397.4733243522522</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N30">
-        <v>0.514087133111549</v>
+        <v>0.825803535339744</v>
       </c>
       <c r="O30">
-        <v>336.2713272834573</v>
+        <v>473.243691044758</v>
       </c>
       <c r="P30">
-        <v>48.50515023868789</v>
+        <v>75.77036669250572</v>
       </c>
       <c r="Q30">
-        <v>1.936248372975914</v>
+        <v>1.831903183395901</v>
       </c>
       <c r="R30">
-        <v>193.8481588141577</v>
+        <v>258.6693484011762</v>
       </c>
       <c r="S30">
-        <v>6.932693242443481</v>
+        <v>6.245762185173184</v>
       </c>
       <c r="T30">
-        <v>15.16853971775395</v>
+        <v>9.169531309305604</v>
       </c>
       <c r="U30">
-        <v>2.719223527537447</v>
+        <v>2.215886173654142</v>
       </c>
       <c r="V30">
-        <v>119.5448685383368</v>
+        <v>239.2051516249876</v>
       </c>
       <c r="W30">
-        <v>396.6651154045257</v>
+        <v>216.367127914611</v>
       </c>
       <c r="X30">
         <v>544.6020043679416</v>
       </c>
       <c r="Y30">
-        <v>256.8358273231722</v>
+        <v>147.1286800156894</v>
       </c>
       <c r="Z30">
-        <v>1.544430617561033</v>
+        <v>1.470597900365436</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>260.0268798387167</v>
+        <v>390.2204766978391</v>
       </c>
       <c r="H31">
-        <v>4.225158616411266</v>
+        <v>18.11865470800629</v>
       </c>
       <c r="I31">
-        <v>255.8017212223054</v>
+        <v>372.1018219898328</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K31">
-        <v>336.1328984332248</v>
+        <v>441.9506870322547</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N31">
-        <v>0.7610136419691221</v>
+        <v>0.8419532606421219</v>
       </c>
       <c r="O31">
-        <v>361.2764375039665</v>
+        <v>478.3173340777398</v>
       </c>
       <c r="P31">
-        <v>25.14353907074164</v>
+        <v>36.36664704548516</v>
       </c>
       <c r="Q31">
-        <v>2.665042452404041</v>
+        <v>2.576622326411876</v>
       </c>
       <c r="R31">
-        <v>269.1242994060187</v>
+        <v>348.2475723181171</v>
       </c>
       <c r="S31">
-        <v>14.3685595129433</v>
+        <v>13.15263773092664</v>
       </c>
       <c r="T31">
-        <v>61.54251318015049</v>
+        <v>21.5369453740629</v>
       </c>
       <c r="U31">
-        <v>4.119728207216532</v>
+        <v>3.069769849882905</v>
       </c>
       <c r="V31">
-        <v>238.3952160903119</v>
+        <v>316.4817220467561</v>
       </c>
       <c r="W31">
-        <v>274.9175650752858</v>
+        <v>158.6174643077584</v>
       </c>
       <c r="X31">
         <v>530.7192862975912</v>
       </c>
       <c r="Y31">
-        <v>194.5863878643664</v>
+        <v>88.76859926533655</v>
       </c>
       <c r="Z31">
-        <v>1.412830404493212</v>
+        <v>1.786864562700127</v>
       </c>
     </row>
   </sheetData>
